--- a/data/trans_dic/P23_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchas menos visitas/llamadas de las que desea de sus amigos y familiares</t>
+          <t>Población que recibe menos o muchas menos visitas/llamadas de las que desea de sus amigos y familiares (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>41,91%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>22,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>19,61%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>31,54%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9,41%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14,46%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,03; 44,67</t>
+          <t>6,43; 31,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,76; 48,65</t>
+          <t>20,7; 73,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,55; 16,43</t>
+          <t>3,52; 23,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,07; 20,23</t>
+          <t>2,11; 20,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,42; 26,25</t>
+          <t>12,26; 35,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,72; 16,47</t>
+          <t>12,5; 34,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,95; 29,26</t>
+          <t>1,84; 19,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,17; 33,45</t>
+          <t>8,64; 34,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,71; 13,96</t>
+          <t>12,3; 29,83</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20,16; 52,23</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4,65; 17,25</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7,74; 25,42</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>19,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>11,49%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13,49%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>15,98%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8,45%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,33; 16,37</t>
+          <t>8,15; 18,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,09; 18,94</t>
+          <t>9,26; 28,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,56; 22,12</t>
+          <t>12,84; 33,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,59; 17,6</t>
+          <t>3,26; 12,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,11; 17,89</t>
+          <t>6,39; 15,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,39; 18,82</t>
+          <t>7,59; 16,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,48; 15,5</t>
+          <t>7,48; 17,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,02; 16,83</t>
+          <t>6,43; 15,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,0; 18,2</t>
+          <t>8,23; 15,15</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>10,02; 21,93</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11,94; 23,77</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5,63; 12,33</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>14,15%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>22,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>12,55%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>17,94%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>15,98%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10,82%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 13,2</t>
+          <t>4,77; 15,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 14,03</t>
+          <t>7,57; 19,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,83; 17,43</t>
+          <t>8,39; 22,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,33; 17,89</t>
+          <t>6,74; 21,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,44; 24,28</t>
+          <t>10,69; 21,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,9; 23,76</t>
+          <t>16,09; 28,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,55; 14,42</t>
+          <t>12,5; 24,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,68; 18,21</t>
+          <t>5,68; 17,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,31; 18,25</t>
+          <t>9,24; 17,28</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>13,61; 22,15</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11,92; 21,11</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7,16; 15,71</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,72; 18,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,64; 19,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,93; 17,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,47; 16,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,69; 19,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,27; 17,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,68; 15,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,09; 18,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,59; 15,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12,01%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18,11%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16,53%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9,03%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13,95%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>17,34%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13,57%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11,65%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13,05%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17,7%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15,02%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8,6; 16,05</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12,98; 27,81</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11,9; 24,54</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,81; 13,02</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10,87; 18,32</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13,74; 21,22</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>10,34; 17,18</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8,61; 16,05</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>10,61; 15,57</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>14,57; 22,28</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>12,32; 19,04</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8,09; 13,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchas menos visitas/llamadas de las que desea de sus amigos y familiares (tasa de respuesta: 99,74%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>22154</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>43138</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12840</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>17322</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>31055</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>25760</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9405</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>39321</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>53209</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>68898</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>22246</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>56643</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8288; 40553</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>21309; 75147</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4023; 26908</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3742; 36738</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17461; 50244</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>14437; 39560</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2252; 24259</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>18480; 73396</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>33384; 80957</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>44033; 114076</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10988; 40793</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>30300; 99532</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>54878</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>57876</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>78652</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>33949</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>47598</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>43765</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>45137</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>50542</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>102477</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>101641</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>123789</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>84491</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>34830; 81086</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>34476; 107730</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>51276; 133269</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>16557; 63955</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>29685; 71573</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>28909; 62523</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>28064; 64026</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>31688; 77497</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>73371; 135112</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>75476; 165168</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>92492; 184158</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>56267; 123321</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>29797</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>36192</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>38968</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>42498</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>65728</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>76288</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>57389</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>38772</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>95525</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>112480</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>96356</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>81270</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15887; 51833</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>21372; 54144</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>23114; 63315</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23828; 74863</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>45798; 93578</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>55453; 98929</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>40923; 78738</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22581; 69747</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>70363; 131521</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>85323; 138891</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>71832; 127273</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>53795; 117981</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>106829</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>137206</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>130460</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>93770</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>144382</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>145813</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>111931</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>128634</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>251211</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>283019</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>242392</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>222404</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>76464; 142727</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>98337; 210685</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>93874; 193604</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>60329; 135249</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>112521; 189650</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>115566; 178470</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>85310; 141746</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>95054; 177181</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>204263; 299613</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>232866; 356235</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>198771; 307243</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>173407; 280328</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
